--- a/lab3/ПП_2020_ПС-32-Гладышева.xlsx
+++ b/lab3/ПП_2020_ПС-32-Гладышева.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6B0211-F8DD-4E93-A884-2B6574816137}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,7 +657,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1231,64 +1231,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,64 +1401,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,7 +1759,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1827,64 +1826,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>65</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>66</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>68</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1997,64 +1996,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4556,7 +4555,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4586,7 +4591,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4616,7 +4627,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4646,7 +4663,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4926,11 +4949,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5225,13 +5248,13 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -5239,13 +5262,13 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5253,13 +5276,13 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5267,13 +5290,13 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5281,13 +5304,13 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5295,13 +5318,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5309,13 +5332,13 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5323,13 +5346,13 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5337,13 +5360,13 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5351,13 +5374,13 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5365,13 +5388,13 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5379,13 +5402,13 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5393,13 +5416,13 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5407,13 +5430,13 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5421,13 +5444,13 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5435,13 +5458,13 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -5449,13 +5472,13 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5463,13 +5486,13 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5477,13 +5500,13 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5491,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
